--- a/trend_results/Lakes/LakeWilliam_e66a7ded34.xlsx
+++ b/trend_results/Lakes/LakeWilliam_e66a7ded34.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>site name</t>
   </si>
@@ -109,28 +109,34 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Lake</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,31 +612,31 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.743461281385477</v>
+        <v>0.338300460169626</v>
       </c>
       <c r="G2">
-        <v>0.142857142857143</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="H2">
-        <v>0.785714285714286</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="K2">
-        <v>-0.623206511413973</v>
+        <v>0.774039735099338</v>
       </c>
       <c r="L2">
-        <v>-3.95878304244886</v>
+        <v>-1.87307692307692</v>
       </c>
       <c r="M2">
-        <v>3.73443828283865</v>
+        <v>8.576914337915071</v>
       </c>
       <c r="N2">
-        <v>-3.89504069633733</v>
+        <v>3.96943453897096</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
@@ -645,19 +651,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -674,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.392857142857143</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="H3">
-        <v>0.214285714285714</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -707,7 +713,7 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3">
         <v>1796924.87806</v>
@@ -716,19 +722,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -745,40 +751,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>0.786397972481633</v>
+        <v>0.288468004410743</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.958333333333333</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0430977150967025</v>
+        <v>0.0457251105879765</v>
       </c>
       <c r="K4">
-        <v>-0.0050914379646293</v>
+        <v>0.0051159031270708</v>
       </c>
       <c r="L4">
-        <v>-0.0236000066713447</v>
+        <v>-0.0066767467172582</v>
       </c>
       <c r="M4">
-        <v>0.0129941665159302</v>
+        <v>0.022986656057142</v>
       </c>
       <c r="N4">
-        <v>-11.813707416287</v>
+        <v>11.1883887458898</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>1796924.87806</v>
@@ -787,19 +793,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -816,31 +822,31 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.564316395946702</v>
+        <v>0.7220006806800749</v>
       </c>
       <c r="G5">
-        <v>0.321428571428571</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="H5">
-        <v>0.678571428571429</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.07099999999999999</v>
+        <v>0.0625</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0477880667068575</v>
+        <v>-0.0328235683785143</v>
       </c>
       <c r="M5">
-        <v>0.0121841350069995</v>
+        <v>0.0036562248528668</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -849,7 +855,7 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1796924.87806</v>
@@ -858,19 +864,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -887,40 +893,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>0.016428137118827</v>
+        <v>0.396094836064712</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.958333333333333</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.96</v>
+        <v>7.94</v>
       </c>
       <c r="K6">
-        <v>-0.309784716494845</v>
+        <v>-0.0244927358633586</v>
       </c>
       <c r="L6">
-        <v>-0.530739689171256</v>
+        <v>-0.204477310017813</v>
       </c>
       <c r="M6">
-        <v>-0.08014460515644049</v>
+        <v>0.15603296872397</v>
       </c>
       <c r="N6">
-        <v>-3.89176779516137</v>
+        <v>-0.308472743871015</v>
       </c>
       <c r="O6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1796924.87806</v>
@@ -929,16 +935,16 @@
         <v>5556057.56887</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,40 +961,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>0.324642722495101</v>
+        <v>0.0614857589735283</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.857142857142857</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.555</v>
+        <v>1.59</v>
       </c>
       <c r="K7">
-        <v>0.0276764628661863</v>
+        <v>0.0849418604651164</v>
       </c>
       <c r="L7">
-        <v>-0.06611851197838341</v>
+        <v>-0.008919489696291799</v>
       </c>
       <c r="M7">
-        <v>0.108847656807621</v>
+        <v>0.187906928690953</v>
       </c>
       <c r="N7">
-        <v>1.77983684026922</v>
+        <v>5.34225537516455</v>
       </c>
       <c r="O7" t="s">
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1796924.87806</v>
@@ -997,19 +1003,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,40 +1032,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>0.0109211466942391</v>
+        <v>0.0103579784487108</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.892857142857143</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1565</v>
+        <v>0.1625</v>
       </c>
       <c r="K8">
-        <v>0.0175380380199217</v>
+        <v>0.0310642345568487</v>
       </c>
       <c r="L8">
-        <v>0.004265569018347</v>
+        <v>0.0070523609623915</v>
       </c>
       <c r="M8">
-        <v>0.0310366383376047</v>
+        <v>0.0531935609910598</v>
       </c>
       <c r="N8">
-        <v>11.2064140702375</v>
+        <v>19.1164520349838</v>
       </c>
       <c r="O8" t="s">
         <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1796924.87806</v>
@@ -1068,19 +1074,303 @@
         <v>5556057.56887</v>
       </c>
       <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>0.477301909675659</v>
+      </c>
+      <c r="G9">
+        <v>0.130434782608696</v>
+      </c>
+      <c r="H9">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>19.5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-1.27371719146725</v>
+      </c>
+      <c r="M9">
+        <v>2.91396863320561</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9">
+        <v>1796924.87806</v>
+      </c>
+      <c r="R9">
+        <v>5556057.56887</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>0.7290080593166161</v>
+      </c>
+      <c r="G10">
+        <v>0.318181818181818</v>
+      </c>
+      <c r="H10">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.0575</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>-0.0189465490691516</v>
+      </c>
+      <c r="M10">
+        <v>0.0007571637328423</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10">
+        <v>1796924.87806</v>
+      </c>
+      <c r="R10">
+        <v>5556057.56887</v>
+      </c>
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>0.0128940143445231</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.55</v>
+      </c>
+      <c r="K11">
+        <v>0.0507291666666667</v>
+      </c>
+      <c r="L11">
+        <v>0.0165811012799746</v>
+      </c>
+      <c r="M11">
+        <v>0.08710653508932061</v>
+      </c>
+      <c r="N11">
+        <v>3.27284946236559</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
         <v>39</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Q11">
+        <v>1796924.87806</v>
+      </c>
+      <c r="R11">
+        <v>5556057.56887</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>1.75511909349385E-05</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.8297872340425529</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.156</v>
+      </c>
+      <c r="K12">
+        <v>0.0171488127361036</v>
+      </c>
+      <c r="L12">
+        <v>0.009847349468446001</v>
+      </c>
+      <c r="M12">
+        <v>0.0257702664353376</v>
+      </c>
+      <c r="N12">
+        <v>10.9928286769895</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="s">
         <v>40</v>
       </c>
-      <c r="U8" t="s">
+      <c r="Q12">
+        <v>1796924.87806</v>
+      </c>
+      <c r="R12">
+        <v>5556057.56887</v>
+      </c>
+      <c r="S12" t="s">
         <v>41</v>
       </c>
-      <c r="V8" t="s">
+      <c r="T12" t="s">
         <v>42</v>
       </c>
-      <c r="W8" t="s">
-        <v>46</v>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakeWilliam_e66a7ded34.xlsx
+++ b/trend_results/Lakes/LakeWilliam_e66a7ded34.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake William</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>West_5</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,40 +615,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.338300460169626</v>
+        <v>0.441074933270038</v>
       </c>
       <c r="G2">
-        <v>0.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.735294117647059</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>19.5</v>
+        <v>1.86885</v>
       </c>
       <c r="K2">
-        <v>0.774039735099338</v>
+        <v>0.014196332046332</v>
       </c>
       <c r="L2">
-        <v>-1.87307692307692</v>
+        <v>-0.234356816896172</v>
       </c>
       <c r="M2">
-        <v>8.576914337915071</v>
+        <v>0.793269587826872</v>
       </c>
       <c r="N2">
-        <v>3.96943453897096</v>
+        <v>0.759629293219469</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2">
         <v>1796924.87806</v>
@@ -651,19 +657,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -683,37 +689,37 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.338300460169626</v>
       </c>
       <c r="G3">
-        <v>0.470588235294118</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="H3">
-        <v>0.235294117647059</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>19.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.774039735099338</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-1.87307692307692</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.576914337915071</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>3.96943453897096</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>1796924.87806</v>
@@ -722,19 +728,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -751,37 +757,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.288468004410743</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="H4">
-        <v>0.9696969696969699</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0457251105879765</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>0.0051159031270708</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0066767467172582</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.022986656057142</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.1883887458898</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
         <v>35</v>
@@ -793,19 +799,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,34 +831,34 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0.7220006806800749</v>
+        <v>0.288468004410743</v>
       </c>
       <c r="G5">
-        <v>0.294117647058824</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.676470588235294</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0625</v>
+        <v>0.0457251105879765</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0051159031270708</v>
       </c>
       <c r="L5">
-        <v>-0.0328235683785143</v>
+        <v>-0.0066767467172582</v>
       </c>
       <c r="M5">
-        <v>0.0036562248528668</v>
+        <v>0.022986656057142</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.1883887458898</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>
@@ -864,19 +870,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -893,37 +899,37 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>0.396094836064712</v>
+        <v>0.7220006806800749</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="H6">
-        <v>0.939393939393939</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.94</v>
+        <v>0.0625</v>
       </c>
       <c r="K6">
-        <v>-0.0244927358633586</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.204477310017813</v>
+        <v>-0.0328235683785143</v>
       </c>
       <c r="M6">
-        <v>0.15603296872397</v>
+        <v>0.0036562248528668</v>
       </c>
       <c r="N6">
-        <v>-0.308472743871015</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
         <v>37</v>
@@ -935,16 +941,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -961,37 +970,37 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0.0614857589735283</v>
+        <v>0.396094836064712</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.882352941176471</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.59</v>
+        <v>7.94</v>
       </c>
       <c r="K7">
-        <v>0.0849418604651164</v>
+        <v>-0.0244927358633586</v>
       </c>
       <c r="L7">
-        <v>-0.008919489696291799</v>
+        <v>-0.204477310017813</v>
       </c>
       <c r="M7">
-        <v>0.187906928690953</v>
+        <v>0.15603296872397</v>
       </c>
       <c r="N7">
-        <v>5.34225537516455</v>
+        <v>-0.308472743871015</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
         <v>38</v>
@@ -1003,19 +1012,16 @@
         <v>5556057.56887</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1032,37 +1038,37 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.0103579784487108</v>
+        <v>0.0614857589735283</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.9411764705882349</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1625</v>
+        <v>1.59</v>
       </c>
       <c r="K8">
-        <v>0.0310642345568487</v>
+        <v>0.0849418604651164</v>
       </c>
       <c r="L8">
-        <v>0.0070523609623915</v>
+        <v>-0.008919489696291799</v>
       </c>
       <c r="M8">
-        <v>0.0531935609910598</v>
+        <v>0.187906928690953</v>
       </c>
       <c r="N8">
-        <v>19.1164520349838</v>
+        <v>5.34225537516455</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
@@ -1074,19 +1080,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1094,10 +1100,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1106,37 +1112,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0.477301909675659</v>
+        <v>0.0103579784487108</v>
       </c>
       <c r="G9">
-        <v>0.130434782608696</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.760869565217391</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>19.5</v>
+        <v>0.1625</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0310642345568487</v>
       </c>
       <c r="L9">
-        <v>-1.27371719146725</v>
+        <v>0.0070523609623915</v>
       </c>
       <c r="M9">
-        <v>2.91396863320561</v>
+        <v>0.0531935609910598</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>19.1164520349838</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>1796924.87806</v>
@@ -1145,19 +1151,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1165,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1174,40 +1180,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.7290080593166161</v>
+        <v>0.477301909675659</v>
       </c>
       <c r="G10">
-        <v>0.318181818181818</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="H10">
-        <v>0.636363636363636</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.0575</v>
+        <v>19.5</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.0189465490691516</v>
+        <v>-1.27371719146725</v>
       </c>
       <c r="M10">
-        <v>0.0007571637328423</v>
+        <v>2.91396863320561</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>1796924.87806</v>
@@ -1216,16 +1222,16 @@
         <v>5556057.56887</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
         <v>47</v>
@@ -1236,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1245,40 +1251,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>0.0128940143445231</v>
+        <v>0.7290080593166161</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="H11">
-        <v>0.851063829787234</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1.55</v>
+        <v>0.0575</v>
       </c>
       <c r="K11">
-        <v>0.0507291666666667</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0165811012799746</v>
+        <v>-0.0189465490691516</v>
       </c>
       <c r="M11">
-        <v>0.08710653508932061</v>
+        <v>0.0007571637328423</v>
       </c>
       <c r="N11">
-        <v>3.27284946236559</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>1796924.87806</v>
@@ -1287,19 +1293,19 @@
         <v>5556057.56887</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1316,37 +1322,37 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>1.75511909349385E-05</v>
+        <v>0.0128940143445231</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.8297872340425529</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.156</v>
+        <v>1.55</v>
       </c>
       <c r="K12">
-        <v>0.0171488127361036</v>
+        <v>0.0507291666666667</v>
       </c>
       <c r="L12">
-        <v>0.009847349468446001</v>
+        <v>0.0165811012799746</v>
       </c>
       <c r="M12">
-        <v>0.0257702664353376</v>
+        <v>0.08710653508932061</v>
       </c>
       <c r="N12">
-        <v>10.9928286769895</v>
+        <v>3.27284946236559</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
         <v>40</v>
@@ -1358,19 +1364,90 @@
         <v>5556057.56887</v>
       </c>
       <c r="S12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>1.75511909349385E-05</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.8297872340425529</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.156</v>
+      </c>
+      <c r="K13">
+        <v>0.0171488127361036</v>
+      </c>
+      <c r="L13">
+        <v>0.009847349468446001</v>
+      </c>
+      <c r="M13">
+        <v>0.0257702664353376</v>
+      </c>
+      <c r="N13">
+        <v>10.9928286769895</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
         <v>41</v>
       </c>
-      <c r="T12" t="s">
+      <c r="Q13">
+        <v>1796924.87806</v>
+      </c>
+      <c r="R13">
+        <v>5556057.56887</v>
+      </c>
+      <c r="S13" t="s">
         <v>42</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T13" t="s">
         <v>43</v>
       </c>
-      <c r="V12" t="s">
+      <c r="U13" t="s">
         <v>44</v>
       </c>
-      <c r="W12" t="s">
-        <v>48</v>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
